--- a/biology/Biologie cellulaire et moléculaire/LacZ/LacZ.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/LacZ/LacZ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le gène lacZ est un des trois gènes présents dans l'opéron lactose, que possèdent de nombreuses Eubactéries comme Escherichia coli. Il code la β-galactosidase[1], une enzyme capable d'hydrolyser le lactose en glucose et galactose.
-Ce gène est un gène rapporteur très utilisé, parce que l'on connaît très bien le fonctionnement de l'opéron lactose (décrit très tôt par Jacques Monod) et parce que la présence de β-galactosidase est facilement détectable en présence de X-gal, la bactérie devient bleue[2].
+Le gène lacZ est un des trois gènes présents dans l'opéron lactose, que possèdent de nombreuses Eubactéries comme Escherichia coli. Il code la β-galactosidase, une enzyme capable d'hydrolyser le lactose en glucose et galactose.
+Ce gène est un gène rapporteur très utilisé, parce que l'on connaît très bien le fonctionnement de l'opéron lactose (décrit très tôt par Jacques Monod) et parce que la présence de β-galactosidase est facilement détectable en présence de X-gal, la bactérie devient bleue.
 </t>
         </is>
       </c>
